--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
